--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v6.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCFAD8-BC93-4352-9EE6-E60706DF5625}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27269EA7-BDDB-402D-B2BF-956A5CAA3BB5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="105">
   <si>
     <t>Priority</t>
   </si>
@@ -341,12 +341,24 @@
   <si>
     <t>Marketing Information, take a look at why the fonts size is different</t>
   </si>
+  <si>
+    <t>The Product Information -&gt; Route Of Administration there is an extra space before the ; should be &lt;entry&gt;; &lt;entry&gt;; not &lt;entry&gt; ; &lt;entry&gt; ;</t>
+  </si>
+  <si>
+    <t>Active Ingredient/Active Moiety -&gt; Ingredient Name should always show the child &lt;activeMoiety&gt;&lt;activeMoiety&gt; element as the second entry.</t>
+  </si>
+  <si>
+    <t>Active Ingredient/Active Moiety -&gt; Basis Of Strength is showing the wrong value.  When the &lt;ingredient classCode="ACTIM" or "ACTIB" or "ACTI" then the entry should be the &lt;activeMoiety&gt;&lt;activeMoiety&gt; child element, when the classCode="ACTIR" the second entry should be the &lt;asEquivalentSubstance&gt;&lt;definingSubstance&gt; child element</t>
+  </si>
+  <si>
+    <t>Active Ingredient/Active Moiety -&gt; Ingredient Name the substance name is bolded, should not be</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +392,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,6 +437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -765,7 +785,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -774,61 +794,61 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -840,15 +860,15 @@
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -860,15 +880,15 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -880,12 +900,12 @@
         <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>63</v>
@@ -897,116 +917,19 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H5">
-    <sortCondition ref="B2:B5"/>
-    <sortCondition ref="C2:C5"/>
+  <sortState ref="A2:H4">
+    <sortCondition ref="B2:B4"/>
+    <sortCondition ref="C2:C4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1015,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1026,7 +949,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="74.625" customWidth="1"/>
+    <col min="6" max="6" width="107.125" customWidth="1"/>
     <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1056,7 +979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1142,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1248,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1454,7 +1377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -1584,7 +1507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>32</v>
       </c>
@@ -1664,7 +1587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35</v>
       </c>
@@ -1704,7 +1627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>37</v>
       </c>
@@ -1764,7 +1687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41</v>
       </c>
@@ -1784,7 +1707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -1822,6 +1745,186 @@
       </c>
       <c r="F38" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1829,5 +1932,6 @@
     <sortCondition ref="A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v6.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27269EA7-BDDB-402D-B2BF-956A5CAA3BB5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911072A9-6E11-48E7-9CA2-ECD11EDC9678}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -871,7 +871,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -1767,7 +1767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44</v>
       </c>
